--- a/biology/Zoologie/Bouscarle_chanteuse/Bouscarle_chanteuse.xlsx
+++ b/biology/Zoologie/Bouscarle_chanteuse/Bouscarle_chanteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horornis diphone
 La Bouscarle chanteuse  (Horornis diphone) est une espèce de passereaux de la famille des Cettiidae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce de l'île de Sakhaline (Russie) au nord jusqu'au Japon et les îles Ryūkyū au sud ; à l'ouest, on la trouve à l'est et au centre de la Chine.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bouscarle chanteuse mesure 15,5 cm.
 </t>
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau, trés présent dans la culture japonaise sous le nom de "uguisu" (鶯, dit aussi "rossignol japonais"), est célèbre pour son chant mélodieux au printemps. Il est représenté sur une des cartes du mois de février dans le jeu de cartes traditionnelles japonaises Hanafuda. Elle a également servi d'inspiration pour les codes en morse de la Wii.
 </t>
